--- a/Resources/stage2.xlsx
+++ b/Resources/stage2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccrcn\Desktop\ScrollActionGame\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{566FA3CE-9275-45AC-AE6F-F2826B233E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A8E86FF5-12B4-4997-8F95-08AE5A39F7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="0" windowWidth="12280" windowHeight="10170"/>
+    <workbookView xWindow="12190" yWindow="1720" windowWidth="6960" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="stage2" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +337,15 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -780,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -865,15 +877,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>147</xdr:col>
-      <xdr:colOff>6886</xdr:colOff>
+      <xdr:colOff>94042</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>269289</xdr:rowOff>
+      <xdr:rowOff>281739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>167</xdr:col>
-      <xdr:colOff>237374</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>291799</xdr:rowOff>
+      <xdr:colOff>25706</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>5426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -903,8 +915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45345886" y="9522146"/>
-          <a:ext cx="6399059" cy="4648939"/>
+          <a:off x="44021101" y="9246445"/>
+          <a:ext cx="6206958" cy="4504863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,16 +927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>168</xdr:col>
-      <xdr:colOff>304429</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>276546</xdr:rowOff>
+      <xdr:col>169</xdr:col>
+      <xdr:colOff>18057</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>189</xdr:col>
-      <xdr:colOff>226488</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>299056</xdr:rowOff>
+      <xdr:colOff>238939</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>74938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -954,8 +966,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="52120429" y="9529403"/>
-          <a:ext cx="6399059" cy="4648939"/>
+          <a:off x="50519233" y="9614781"/>
+          <a:ext cx="6197353" cy="4504863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,13 +1278,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EA1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="GB19" sqref="GB19"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="140" max="141" width="4" customWidth="1"/>
+    <col min="152" max="152" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:182" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -12490,7 +12504,9 @@
       <c r="EU32" s="5">
         <v>13</v>
       </c>
-      <c r="EV32" s="5"/>
+      <c r="EV32" s="7">
+        <v>4</v>
+      </c>
       <c r="EW32" s="5">
         <v>22</v>
       </c>
@@ -12507,7 +12523,9 @@
       <c r="FB32" s="5">
         <v>39</v>
       </c>
-      <c r="FC32" s="5"/>
+      <c r="FC32" s="7">
+        <v>11</v>
+      </c>
       <c r="FD32" s="5"/>
       <c r="FE32" s="5"/>
       <c r="FF32" s="4"/>
@@ -12530,7 +12548,9 @@
       <c r="EU33" s="5">
         <v>4</v>
       </c>
-      <c r="EV33" s="5"/>
+      <c r="EV33" s="7">
+        <v>25</v>
+      </c>
       <c r="EW33" s="5"/>
       <c r="EX33" s="5"/>
       <c r="EY33" s="5"/>
@@ -12558,7 +12578,9 @@
       <c r="EU34" s="5">
         <v>5</v>
       </c>
-      <c r="EV34" s="5"/>
+      <c r="EV34" s="7">
+        <v>46</v>
+      </c>
       <c r="EW34" s="5"/>
       <c r="EX34" s="5">
         <v>34</v>
@@ -12588,7 +12610,9 @@
       </c>
       <c r="ET35" s="5"/>
       <c r="EU35" s="5"/>
-      <c r="EV35" s="5"/>
+      <c r="EV35" s="7">
+        <v>67</v>
+      </c>
       <c r="EW35" s="5">
         <v>32</v>
       </c>
@@ -12596,7 +12620,9 @@
       <c r="EY35" s="5">
         <v>33</v>
       </c>
-      <c r="EZ35" s="5"/>
+      <c r="EZ35" s="7">
+        <v>71</v>
+      </c>
       <c r="FA35" s="5">
         <v>42</v>
       </c>
@@ -12620,7 +12646,9 @@
       <c r="ES36" s="5"/>
       <c r="ET36" s="5"/>
       <c r="EU36" s="5"/>
-      <c r="EV36" s="5"/>
+      <c r="EV36" s="7">
+        <v>88</v>
+      </c>
       <c r="EW36" s="5"/>
       <c r="EX36" s="5"/>
       <c r="EY36" s="5"/>
@@ -12644,7 +12672,9 @@
       <c r="ES37" s="5"/>
       <c r="ET37" s="5"/>
       <c r="EU37" s="5"/>
-      <c r="EV37" s="5"/>
+      <c r="EV37" s="7">
+        <v>109</v>
+      </c>
       <c r="EW37" s="5"/>
       <c r="EX37" s="5">
         <v>46</v>
@@ -12670,7 +12700,9 @@
       <c r="ES38" s="5"/>
       <c r="ET38" s="5"/>
       <c r="EU38" s="5"/>
-      <c r="EV38" s="5"/>
+      <c r="EV38" s="7">
+        <v>130</v>
+      </c>
       <c r="EW38" s="5"/>
       <c r="EX38" s="5"/>
       <c r="EY38" s="5"/>
@@ -12694,7 +12726,9 @@
       <c r="ES39" s="5"/>
       <c r="ET39" s="5"/>
       <c r="EU39" s="5"/>
-      <c r="EV39" s="5"/>
+      <c r="EV39" s="7">
+        <v>151</v>
+      </c>
       <c r="EW39" s="5"/>
       <c r="EX39" s="5"/>
       <c r="EY39" s="5"/>
@@ -12718,14 +12752,18 @@
       <c r="ES40" s="5"/>
       <c r="ET40" s="5"/>
       <c r="EU40" s="5"/>
-      <c r="EV40" s="5"/>
+      <c r="EV40" s="7">
+        <v>172</v>
+      </c>
       <c r="EW40" s="5"/>
       <c r="EX40" s="5"/>
       <c r="EY40" s="5"/>
       <c r="EZ40" s="5"/>
       <c r="FA40" s="5"/>
       <c r="FB40" s="5"/>
-      <c r="FC40" s="5"/>
+      <c r="FC40" s="7">
+        <v>179</v>
+      </c>
       <c r="FD40" s="5">
         <v>30</v>
       </c>
@@ -12746,7 +12784,9 @@
       <c r="ES41" s="5"/>
       <c r="ET41" s="5"/>
       <c r="EU41" s="5"/>
-      <c r="EV41" s="5"/>
+      <c r="EV41" s="7">
+        <v>193</v>
+      </c>
       <c r="EW41" s="5"/>
       <c r="EX41" s="5"/>
       <c r="EY41" s="5"/>
@@ -12770,14 +12810,18 @@
       <c r="ES42" s="5"/>
       <c r="ET42" s="5"/>
       <c r="EU42" s="5"/>
-      <c r="EV42" s="5"/>
+      <c r="EV42" s="7">
+        <v>214</v>
+      </c>
       <c r="EW42" s="6"/>
       <c r="EX42" s="6"/>
       <c r="EY42" s="6"/>
       <c r="EZ42" s="5"/>
       <c r="FA42" s="5"/>
       <c r="FB42" s="5"/>
-      <c r="FC42" s="5"/>
+      <c r="FC42" s="7">
+        <v>221</v>
+      </c>
       <c r="FD42" s="5">
         <v>40</v>
       </c>
@@ -12800,7 +12844,9 @@
       <c r="ES43" s="5"/>
       <c r="ET43" s="5"/>
       <c r="EU43" s="5"/>
-      <c r="EV43" s="5"/>
+      <c r="EV43" s="7">
+        <v>235</v>
+      </c>
       <c r="EW43" s="5">
         <v>48</v>
       </c>
@@ -12828,7 +12874,9 @@
       <c r="ES44" s="5"/>
       <c r="ET44" s="5"/>
       <c r="EU44" s="5"/>
-      <c r="EV44" s="5"/>
+      <c r="EV44" s="7">
+        <v>256</v>
+      </c>
       <c r="EW44" s="5"/>
       <c r="EX44" s="5"/>
       <c r="EY44" s="5"/>
@@ -12858,7 +12906,9 @@
       <c r="EU45" s="5">
         <v>24</v>
       </c>
-      <c r="EV45" s="5"/>
+      <c r="EV45" s="7">
+        <v>277</v>
+      </c>
       <c r="EW45" s="5">
         <v>15</v>
       </c>
